--- a/invmgmt/static/Book1.xlsx
+++ b/invmgmt/static/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\I'm a Developer\Projekts\invmgmt\invmgmt\invmgmt\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486406D0-4057-4555-BC85-21FE18787CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829F212-BCDE-4576-83C6-9A6BC3DDDC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{15531BF8-52D6-47A8-A988-64FF7184D1FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>slno</t>
   </si>
@@ -51,12 +51,6 @@
     <t>qty</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>totalprice</t>
   </si>
   <si>
@@ -64,6 +58,24 @@
   </si>
   <si>
     <t>netprice</t>
+  </si>
+  <si>
+    <t>unitprice</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>iPhone13</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>noncomsumable</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -99,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29782E-A0D0-4839-ADDA-F81F85F21E95}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,19 +466,54 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>82000</v>
+      </c>
+      <c r="J2">
+        <v>82000</v>
+      </c>
+      <c r="K2">
+        <v>130000</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
